--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mqw/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mqw/Desktop/Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECFE2AAE-D3F4-7F4D-A7A3-1A0A404F1F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EB9B3D-1A11-C746-B9E7-52C4B7024F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{7E68D910-0769-4986-A8F9-CC9DAC1E2AAC}"/>
+    <workbookView xWindow="11940" yWindow="500" windowWidth="16860" windowHeight="16500" activeTab="2" xr2:uid="{7E68D910-0769-4986-A8F9-CC9DAC1E2AAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="47">
   <si>
     <t>Event Name</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Bucket 3</t>
-  </si>
-  <si>
-    <t>Brand ID</t>
   </si>
   <si>
     <t>KPI Name</t>
@@ -182,6 +179,9 @@
     <t>For color coding significance: 
 - anything over Index = 120, is GREEN (significantly positive)
 - anything under Index = 80, is RED (signficantly negative)</t>
+  </si>
+  <si>
+    <t>Event2</t>
   </si>
 </sst>
 </file>
@@ -263,10 +263,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C80F52-A43B-47BA-B8F4-2E20BF0D5646}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -611,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -690,6 +686,50 @@
       </c>
       <c r="O2">
         <v>66662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>12344</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45301</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45303</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>234</v>
+      </c>
+      <c r="I3">
+        <v>90</v>
+      </c>
+      <c r="J3">
+        <v>89832</v>
+      </c>
+      <c r="K3">
+        <v>84</v>
+      </c>
+      <c r="L3">
+        <v>49</v>
+      </c>
+      <c r="M3">
+        <v>445</v>
+      </c>
+      <c r="N3">
+        <v>543</v>
+      </c>
+      <c r="O3">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -699,10 +739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204A66AD-E34E-4AFE-A39B-5C4F2884588C}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I11" sqref="I11:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -713,7 +753,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -737,7 +777,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
         <v>18</v>
@@ -1003,6 +1043,297 @@
       <c r="J10" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>12344</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45301</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45303</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>12344</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45301</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45303</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I12">
+        <v>1912</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>12344</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45301</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45303</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I13">
+        <v>7280</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>12344</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45301</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45303</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I14">
+        <v>901</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>12344</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45301</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45303</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>12344</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45301</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45303</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I16">
+        <v>4000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>12344</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45301</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45303</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>12344</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45301</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45303</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="I18">
+        <v>101</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>12344</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45301</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45303</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I19">
+        <v>21909</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1012,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D1DB92-61F0-43F6-9BDE-F10130AB7454}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1026,25 +1357,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1052,13 +1383,13 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>12345</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -1072,13 +1403,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>12345</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -1092,19 +1423,19 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>12345</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1112,19 +1443,19 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>12345</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1132,19 +1463,19 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>12345</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1152,19 +1483,19 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>12345</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1172,19 +1503,19 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>12345</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1192,19 +1523,19 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>12345</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1212,18 +1543,198 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>12345</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>12344</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>12344</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>12344</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>12344</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>12344</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>12344</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>12344</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>12344</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>12344</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1248,10 +1759,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1262,7 +1773,7 @@
         <v>45295</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1273,16 +1784,16 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1503,7 +2014,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="3">
         <f>SUM(H4:H12)</f>
